--- a/myexcel.xlsx
+++ b/myexcel.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>test</t>
   </si>
   <si>
     <t>dafssd</t>
+  </si>
+  <si>
+    <t>q434</t>
   </si>
 </sst>
 </file>
@@ -353,22 +356,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="B3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8">
+        <v>4534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="C12">
+        <v>435</v>
       </c>
     </row>
   </sheetData>
